--- a/result/God_7.xlsx
+++ b/result/God_7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>TimeStamp</t>
   </si>
@@ -173,6 +173,39 @@
   </si>
   <si>
     <t>2011-01-01 - 2011-01-31</t>
+  </si>
+  <si>
+    <t>2011-02-01 - 2011-02-28</t>
+  </si>
+  <si>
+    <t>2011-03-04 - 2011-03-31</t>
+  </si>
+  <si>
+    <t>2011-04-01 - 2011-04-30</t>
+  </si>
+  <si>
+    <t>2011-05-02 - 2011-05-31</t>
+  </si>
+  <si>
+    <t>2011-06-01 - 2011-06-30</t>
+  </si>
+  <si>
+    <t>2011-07-02 - 2011-07-31</t>
+  </si>
+  <si>
+    <t>2011-08-01 - 2011-08-31</t>
+  </si>
+  <si>
+    <t>2011-09-01 - 2011-09-30</t>
+  </si>
+  <si>
+    <t>2011-10-02 - 2011-10-31</t>
+  </si>
+  <si>
+    <t>2011-11-01 - 2011-11-30</t>
+  </si>
+  <si>
+    <t>2011-12-02 - 2011-12-31</t>
   </si>
 </sst>
 </file>
@@ -530,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AZ2"/>
+  <dimension ref="A1:AZ13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -852,6 +885,1744 @@
         <v>58</v>
       </c>
     </row>
+    <row r="3" spans="1:52">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3">
+        <v>94</v>
+      </c>
+      <c r="C3">
+        <v>71</v>
+      </c>
+      <c r="D3">
+        <v>56</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>55</v>
+      </c>
+      <c r="G3">
+        <v>54</v>
+      </c>
+      <c r="H3">
+        <v>56</v>
+      </c>
+      <c r="I3">
+        <v>64</v>
+      </c>
+      <c r="J3">
+        <v>51</v>
+      </c>
+      <c r="K3">
+        <v>71</v>
+      </c>
+      <c r="L3">
+        <v>71</v>
+      </c>
+      <c r="M3">
+        <v>67</v>
+      </c>
+      <c r="N3">
+        <v>68</v>
+      </c>
+      <c r="O3">
+        <v>59</v>
+      </c>
+      <c r="P3">
+        <v>73</v>
+      </c>
+      <c r="Q3">
+        <v>62</v>
+      </c>
+      <c r="R3">
+        <v>70</v>
+      </c>
+      <c r="S3">
+        <v>89</v>
+      </c>
+      <c r="T3">
+        <v>79</v>
+      </c>
+      <c r="U3">
+        <v>59</v>
+      </c>
+      <c r="V3">
+        <v>61</v>
+      </c>
+      <c r="W3">
+        <v>44</v>
+      </c>
+      <c r="X3">
+        <v>65</v>
+      </c>
+      <c r="Y3">
+        <v>55</v>
+      </c>
+      <c r="Z3">
+        <v>98</v>
+      </c>
+      <c r="AA3">
+        <v>69</v>
+      </c>
+      <c r="AB3">
+        <v>72</v>
+      </c>
+      <c r="AC3">
+        <v>74</v>
+      </c>
+      <c r="AD3">
+        <v>57</v>
+      </c>
+      <c r="AE3">
+        <v>61</v>
+      </c>
+      <c r="AF3">
+        <v>54</v>
+      </c>
+      <c r="AG3">
+        <v>68</v>
+      </c>
+      <c r="AH3">
+        <v>54</v>
+      </c>
+      <c r="AI3">
+        <v>76</v>
+      </c>
+      <c r="AJ3">
+        <v>65</v>
+      </c>
+      <c r="AK3">
+        <v>65</v>
+      </c>
+      <c r="AL3">
+        <v>85</v>
+      </c>
+      <c r="AM3">
+        <v>62</v>
+      </c>
+      <c r="AN3">
+        <v>67</v>
+      </c>
+      <c r="AO3">
+        <v>57</v>
+      </c>
+      <c r="AP3">
+        <v>85</v>
+      </c>
+      <c r="AQ3">
+        <v>61</v>
+      </c>
+      <c r="AR3">
+        <v>83</v>
+      </c>
+      <c r="AS3">
+        <v>64</v>
+      </c>
+      <c r="AT3">
+        <v>61</v>
+      </c>
+      <c r="AU3">
+        <v>47</v>
+      </c>
+      <c r="AV3">
+        <v>70</v>
+      </c>
+      <c r="AW3">
+        <v>55</v>
+      </c>
+      <c r="AX3">
+        <v>84</v>
+      </c>
+      <c r="AY3">
+        <v>58</v>
+      </c>
+      <c r="AZ3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4">
+        <v>97</v>
+      </c>
+      <c r="C4">
+        <v>72</v>
+      </c>
+      <c r="D4">
+        <v>56</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>66</v>
+      </c>
+      <c r="G4">
+        <v>57</v>
+      </c>
+      <c r="H4">
+        <v>57</v>
+      </c>
+      <c r="I4">
+        <v>72</v>
+      </c>
+      <c r="J4">
+        <v>53</v>
+      </c>
+      <c r="K4">
+        <v>71</v>
+      </c>
+      <c r="L4">
+        <v>78</v>
+      </c>
+      <c r="M4">
+        <v>64</v>
+      </c>
+      <c r="N4">
+        <v>70</v>
+      </c>
+      <c r="O4">
+        <v>65</v>
+      </c>
+      <c r="P4">
+        <v>81</v>
+      </c>
+      <c r="Q4">
+        <v>70</v>
+      </c>
+      <c r="R4">
+        <v>79</v>
+      </c>
+      <c r="S4">
+        <v>89</v>
+      </c>
+      <c r="T4">
+        <v>81</v>
+      </c>
+      <c r="U4">
+        <v>56</v>
+      </c>
+      <c r="V4">
+        <v>68</v>
+      </c>
+      <c r="W4">
+        <v>48</v>
+      </c>
+      <c r="X4">
+        <v>66</v>
+      </c>
+      <c r="Y4">
+        <v>62</v>
+      </c>
+      <c r="Z4">
+        <v>96</v>
+      </c>
+      <c r="AA4">
+        <v>75</v>
+      </c>
+      <c r="AB4">
+        <v>74</v>
+      </c>
+      <c r="AC4">
+        <v>73</v>
+      </c>
+      <c r="AD4">
+        <v>64</v>
+      </c>
+      <c r="AE4">
+        <v>56</v>
+      </c>
+      <c r="AF4">
+        <v>56</v>
+      </c>
+      <c r="AG4">
+        <v>75</v>
+      </c>
+      <c r="AH4">
+        <v>60</v>
+      </c>
+      <c r="AI4">
+        <v>85</v>
+      </c>
+      <c r="AJ4">
+        <v>81</v>
+      </c>
+      <c r="AK4">
+        <v>74</v>
+      </c>
+      <c r="AL4">
+        <v>98</v>
+      </c>
+      <c r="AM4">
+        <v>65</v>
+      </c>
+      <c r="AN4">
+        <v>71</v>
+      </c>
+      <c r="AO4">
+        <v>74</v>
+      </c>
+      <c r="AP4">
+        <v>94</v>
+      </c>
+      <c r="AQ4">
+        <v>68</v>
+      </c>
+      <c r="AR4">
+        <v>91</v>
+      </c>
+      <c r="AS4">
+        <v>77</v>
+      </c>
+      <c r="AT4">
+        <v>63</v>
+      </c>
+      <c r="AU4">
+        <v>58</v>
+      </c>
+      <c r="AV4">
+        <v>70</v>
+      </c>
+      <c r="AW4">
+        <v>61</v>
+      </c>
+      <c r="AX4">
+        <v>92</v>
+      </c>
+      <c r="AY4">
+        <v>61</v>
+      </c>
+      <c r="AZ4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>71</v>
+      </c>
+      <c r="D5">
+        <v>55</v>
+      </c>
+      <c r="E5">
+        <v>95</v>
+      </c>
+      <c r="F5">
+        <v>62</v>
+      </c>
+      <c r="G5">
+        <v>54</v>
+      </c>
+      <c r="H5">
+        <v>53</v>
+      </c>
+      <c r="I5">
+        <v>68</v>
+      </c>
+      <c r="J5">
+        <v>55</v>
+      </c>
+      <c r="K5">
+        <v>70</v>
+      </c>
+      <c r="L5">
+        <v>80</v>
+      </c>
+      <c r="M5">
+        <v>71</v>
+      </c>
+      <c r="N5">
+        <v>65</v>
+      </c>
+      <c r="O5">
+        <v>56</v>
+      </c>
+      <c r="P5">
+        <v>77</v>
+      </c>
+      <c r="Q5">
+        <v>65</v>
+      </c>
+      <c r="R5">
+        <v>73</v>
+      </c>
+      <c r="S5">
+        <v>86</v>
+      </c>
+      <c r="T5">
+        <v>80</v>
+      </c>
+      <c r="U5">
+        <v>56</v>
+      </c>
+      <c r="V5">
+        <v>60</v>
+      </c>
+      <c r="W5">
+        <v>43</v>
+      </c>
+      <c r="X5">
+        <v>66</v>
+      </c>
+      <c r="Y5">
+        <v>55</v>
+      </c>
+      <c r="Z5">
+        <v>88</v>
+      </c>
+      <c r="AA5">
+        <v>69</v>
+      </c>
+      <c r="AB5">
+        <v>67</v>
+      </c>
+      <c r="AC5">
+        <v>64</v>
+      </c>
+      <c r="AD5">
+        <v>56</v>
+      </c>
+      <c r="AE5">
+        <v>51</v>
+      </c>
+      <c r="AF5">
+        <v>54</v>
+      </c>
+      <c r="AG5">
+        <v>71</v>
+      </c>
+      <c r="AH5">
+        <v>56</v>
+      </c>
+      <c r="AI5">
+        <v>75</v>
+      </c>
+      <c r="AJ5">
+        <v>69</v>
+      </c>
+      <c r="AK5">
+        <v>69</v>
+      </c>
+      <c r="AL5">
+        <v>91</v>
+      </c>
+      <c r="AM5">
+        <v>64</v>
+      </c>
+      <c r="AN5">
+        <v>68</v>
+      </c>
+      <c r="AO5">
+        <v>60</v>
+      </c>
+      <c r="AP5">
+        <v>85</v>
+      </c>
+      <c r="AQ5">
+        <v>72</v>
+      </c>
+      <c r="AR5">
+        <v>84</v>
+      </c>
+      <c r="AS5">
+        <v>70</v>
+      </c>
+      <c r="AT5">
+        <v>57</v>
+      </c>
+      <c r="AU5">
+        <v>47</v>
+      </c>
+      <c r="AV5">
+        <v>66</v>
+      </c>
+      <c r="AW5">
+        <v>55</v>
+      </c>
+      <c r="AX5">
+        <v>86</v>
+      </c>
+      <c r="AY5">
+        <v>57</v>
+      </c>
+      <c r="AZ5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6">
+        <v>89</v>
+      </c>
+      <c r="C6">
+        <v>62</v>
+      </c>
+      <c r="D6">
+        <v>55</v>
+      </c>
+      <c r="E6">
+        <v>89</v>
+      </c>
+      <c r="F6">
+        <v>66</v>
+      </c>
+      <c r="G6">
+        <v>54</v>
+      </c>
+      <c r="H6">
+        <v>60</v>
+      </c>
+      <c r="I6">
+        <v>75</v>
+      </c>
+      <c r="J6">
+        <v>50</v>
+      </c>
+      <c r="K6">
+        <v>71</v>
+      </c>
+      <c r="L6">
+        <v>78</v>
+      </c>
+      <c r="M6">
+        <v>67</v>
+      </c>
+      <c r="N6">
+        <v>71</v>
+      </c>
+      <c r="O6">
+        <v>59</v>
+      </c>
+      <c r="P6">
+        <v>73</v>
+      </c>
+      <c r="Q6">
+        <v>70</v>
+      </c>
+      <c r="R6">
+        <v>72</v>
+      </c>
+      <c r="S6">
+        <v>87</v>
+      </c>
+      <c r="T6">
+        <v>81</v>
+      </c>
+      <c r="U6">
+        <v>63</v>
+      </c>
+      <c r="V6">
+        <v>61</v>
+      </c>
+      <c r="W6">
+        <v>46</v>
+      </c>
+      <c r="X6">
+        <v>63</v>
+      </c>
+      <c r="Y6">
+        <v>51</v>
+      </c>
+      <c r="Z6">
+        <v>91</v>
+      </c>
+      <c r="AA6">
+        <v>70</v>
+      </c>
+      <c r="AB6">
+        <v>67</v>
+      </c>
+      <c r="AC6">
+        <v>69</v>
+      </c>
+      <c r="AD6">
+        <v>63</v>
+      </c>
+      <c r="AE6">
+        <v>62</v>
+      </c>
+      <c r="AF6">
+        <v>61</v>
+      </c>
+      <c r="AG6">
+        <v>74</v>
+      </c>
+      <c r="AH6">
+        <v>55</v>
+      </c>
+      <c r="AI6">
+        <v>77</v>
+      </c>
+      <c r="AJ6">
+        <v>58</v>
+      </c>
+      <c r="AK6">
+        <v>67</v>
+      </c>
+      <c r="AL6">
+        <v>90</v>
+      </c>
+      <c r="AM6">
+        <v>60</v>
+      </c>
+      <c r="AN6">
+        <v>68</v>
+      </c>
+      <c r="AO6">
+        <v>62</v>
+      </c>
+      <c r="AP6">
+        <v>88</v>
+      </c>
+      <c r="AQ6">
+        <v>69</v>
+      </c>
+      <c r="AR6">
+        <v>79</v>
+      </c>
+      <c r="AS6">
+        <v>72</v>
+      </c>
+      <c r="AT6">
+        <v>55</v>
+      </c>
+      <c r="AU6">
+        <v>57</v>
+      </c>
+      <c r="AV6">
+        <v>68</v>
+      </c>
+      <c r="AW6">
+        <v>56</v>
+      </c>
+      <c r="AX6">
+        <v>100</v>
+      </c>
+      <c r="AY6">
+        <v>58</v>
+      </c>
+      <c r="AZ6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>75</v>
+      </c>
+      <c r="D7">
+        <v>56</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>57</v>
+      </c>
+      <c r="G7">
+        <v>57</v>
+      </c>
+      <c r="H7">
+        <v>52</v>
+      </c>
+      <c r="I7">
+        <v>71</v>
+      </c>
+      <c r="J7">
+        <v>53</v>
+      </c>
+      <c r="K7">
+        <v>74</v>
+      </c>
+      <c r="L7">
+        <v>79</v>
+      </c>
+      <c r="M7">
+        <v>65</v>
+      </c>
+      <c r="N7">
+        <v>86</v>
+      </c>
+      <c r="O7">
+        <v>56</v>
+      </c>
+      <c r="P7">
+        <v>78</v>
+      </c>
+      <c r="Q7">
+        <v>59</v>
+      </c>
+      <c r="R7">
+        <v>71</v>
+      </c>
+      <c r="S7">
+        <v>83</v>
+      </c>
+      <c r="T7">
+        <v>83</v>
+      </c>
+      <c r="U7">
+        <v>61</v>
+      </c>
+      <c r="V7">
+        <v>61</v>
+      </c>
+      <c r="W7">
+        <v>44</v>
+      </c>
+      <c r="X7">
+        <v>65</v>
+      </c>
+      <c r="Y7">
+        <v>54</v>
+      </c>
+      <c r="Z7">
+        <v>94</v>
+      </c>
+      <c r="AA7">
+        <v>66</v>
+      </c>
+      <c r="AB7">
+        <v>69</v>
+      </c>
+      <c r="AC7">
+        <v>68</v>
+      </c>
+      <c r="AD7">
+        <v>61</v>
+      </c>
+      <c r="AE7">
+        <v>56</v>
+      </c>
+      <c r="AF7">
+        <v>54</v>
+      </c>
+      <c r="AG7">
+        <v>61</v>
+      </c>
+      <c r="AH7">
+        <v>55</v>
+      </c>
+      <c r="AI7">
+        <v>73</v>
+      </c>
+      <c r="AJ7">
+        <v>63</v>
+      </c>
+      <c r="AK7">
+        <v>62</v>
+      </c>
+      <c r="AL7">
+        <v>87</v>
+      </c>
+      <c r="AM7">
+        <v>63</v>
+      </c>
+      <c r="AN7">
+        <v>65</v>
+      </c>
+      <c r="AO7">
+        <v>55</v>
+      </c>
+      <c r="AP7">
+        <v>87</v>
+      </c>
+      <c r="AQ7">
+        <v>80</v>
+      </c>
+      <c r="AR7">
+        <v>80</v>
+      </c>
+      <c r="AS7">
+        <v>72</v>
+      </c>
+      <c r="AT7">
+        <v>59</v>
+      </c>
+      <c r="AU7">
+        <v>44</v>
+      </c>
+      <c r="AV7">
+        <v>63</v>
+      </c>
+      <c r="AW7">
+        <v>53</v>
+      </c>
+      <c r="AX7">
+        <v>85</v>
+      </c>
+      <c r="AY7">
+        <v>54</v>
+      </c>
+      <c r="AZ7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8">
+        <v>96</v>
+      </c>
+      <c r="C8">
+        <v>61</v>
+      </c>
+      <c r="D8">
+        <v>56</v>
+      </c>
+      <c r="E8">
+        <v>97</v>
+      </c>
+      <c r="F8">
+        <v>57</v>
+      </c>
+      <c r="G8">
+        <v>52</v>
+      </c>
+      <c r="H8">
+        <v>49</v>
+      </c>
+      <c r="I8">
+        <v>67</v>
+      </c>
+      <c r="J8">
+        <v>50</v>
+      </c>
+      <c r="K8">
+        <v>66</v>
+      </c>
+      <c r="L8">
+        <v>79</v>
+      </c>
+      <c r="M8">
+        <v>66</v>
+      </c>
+      <c r="N8">
+        <v>74</v>
+      </c>
+      <c r="O8">
+        <v>56</v>
+      </c>
+      <c r="P8">
+        <v>74</v>
+      </c>
+      <c r="Q8">
+        <v>62</v>
+      </c>
+      <c r="R8">
+        <v>68</v>
+      </c>
+      <c r="S8">
+        <v>83</v>
+      </c>
+      <c r="T8">
+        <v>82</v>
+      </c>
+      <c r="U8">
+        <v>58</v>
+      </c>
+      <c r="V8">
+        <v>61</v>
+      </c>
+      <c r="W8">
+        <v>41</v>
+      </c>
+      <c r="X8">
+        <v>59</v>
+      </c>
+      <c r="Y8">
+        <v>51</v>
+      </c>
+      <c r="Z8">
+        <v>100</v>
+      </c>
+      <c r="AA8">
+        <v>69</v>
+      </c>
+      <c r="AB8">
+        <v>60</v>
+      </c>
+      <c r="AC8">
+        <v>65</v>
+      </c>
+      <c r="AD8">
+        <v>55</v>
+      </c>
+      <c r="AE8">
+        <v>50</v>
+      </c>
+      <c r="AF8">
+        <v>50</v>
+      </c>
+      <c r="AG8">
+        <v>66</v>
+      </c>
+      <c r="AH8">
+        <v>50</v>
+      </c>
+      <c r="AI8">
+        <v>79</v>
+      </c>
+      <c r="AJ8">
+        <v>68</v>
+      </c>
+      <c r="AK8">
+        <v>60</v>
+      </c>
+      <c r="AL8">
+        <v>86</v>
+      </c>
+      <c r="AM8">
+        <v>54</v>
+      </c>
+      <c r="AN8">
+        <v>59</v>
+      </c>
+      <c r="AO8">
+        <v>49</v>
+      </c>
+      <c r="AP8">
+        <v>86</v>
+      </c>
+      <c r="AQ8">
+        <v>64</v>
+      </c>
+      <c r="AR8">
+        <v>83</v>
+      </c>
+      <c r="AS8">
+        <v>71</v>
+      </c>
+      <c r="AT8">
+        <v>61</v>
+      </c>
+      <c r="AU8">
+        <v>51</v>
+      </c>
+      <c r="AV8">
+        <v>63</v>
+      </c>
+      <c r="AW8">
+        <v>50</v>
+      </c>
+      <c r="AX8">
+        <v>89</v>
+      </c>
+      <c r="AY8">
+        <v>53</v>
+      </c>
+      <c r="AZ8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9">
+        <v>99</v>
+      </c>
+      <c r="C9">
+        <v>65</v>
+      </c>
+      <c r="D9">
+        <v>62</v>
+      </c>
+      <c r="E9">
+        <v>96</v>
+      </c>
+      <c r="F9">
+        <v>58</v>
+      </c>
+      <c r="G9">
+        <v>57</v>
+      </c>
+      <c r="H9">
+        <v>55</v>
+      </c>
+      <c r="I9">
+        <v>63</v>
+      </c>
+      <c r="J9">
+        <v>52</v>
+      </c>
+      <c r="K9">
+        <v>73</v>
+      </c>
+      <c r="L9">
+        <v>87</v>
+      </c>
+      <c r="M9">
+        <v>72</v>
+      </c>
+      <c r="N9">
+        <v>69</v>
+      </c>
+      <c r="O9">
+        <v>60</v>
+      </c>
+      <c r="P9">
+        <v>82</v>
+      </c>
+      <c r="Q9">
+        <v>65</v>
+      </c>
+      <c r="R9">
+        <v>83</v>
+      </c>
+      <c r="S9">
+        <v>98</v>
+      </c>
+      <c r="T9">
+        <v>88</v>
+      </c>
+      <c r="U9">
+        <v>58</v>
+      </c>
+      <c r="V9">
+        <v>59</v>
+      </c>
+      <c r="W9">
+        <v>44</v>
+      </c>
+      <c r="X9">
+        <v>59</v>
+      </c>
+      <c r="Y9">
+        <v>55</v>
+      </c>
+      <c r="Z9">
+        <v>100</v>
+      </c>
+      <c r="AA9">
+        <v>72</v>
+      </c>
+      <c r="AB9">
+        <v>68</v>
+      </c>
+      <c r="AC9">
+        <v>68</v>
+      </c>
+      <c r="AD9">
+        <v>62</v>
+      </c>
+      <c r="AE9">
+        <v>54</v>
+      </c>
+      <c r="AF9">
+        <v>50</v>
+      </c>
+      <c r="AG9">
+        <v>79</v>
+      </c>
+      <c r="AH9">
+        <v>52</v>
+      </c>
+      <c r="AI9">
+        <v>80</v>
+      </c>
+      <c r="AJ9">
+        <v>82</v>
+      </c>
+      <c r="AK9">
+        <v>80</v>
+      </c>
+      <c r="AL9">
+        <v>86</v>
+      </c>
+      <c r="AM9">
+        <v>59</v>
+      </c>
+      <c r="AN9">
+        <v>60</v>
+      </c>
+      <c r="AO9">
+        <v>49</v>
+      </c>
+      <c r="AP9">
+        <v>88</v>
+      </c>
+      <c r="AQ9">
+        <v>78</v>
+      </c>
+      <c r="AR9">
+        <v>90</v>
+      </c>
+      <c r="AS9">
+        <v>77</v>
+      </c>
+      <c r="AT9">
+        <v>56</v>
+      </c>
+      <c r="AU9">
+        <v>52</v>
+      </c>
+      <c r="AV9">
+        <v>66</v>
+      </c>
+      <c r="AW9">
+        <v>55</v>
+      </c>
+      <c r="AX9">
+        <v>94</v>
+      </c>
+      <c r="AY9">
+        <v>61</v>
+      </c>
+      <c r="AZ9">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <v>93</v>
+      </c>
+      <c r="C10">
+        <v>69</v>
+      </c>
+      <c r="D10">
+        <v>57</v>
+      </c>
+      <c r="E10">
+        <v>97</v>
+      </c>
+      <c r="F10">
+        <v>60</v>
+      </c>
+      <c r="G10">
+        <v>53</v>
+      </c>
+      <c r="H10">
+        <v>54</v>
+      </c>
+      <c r="I10">
+        <v>56</v>
+      </c>
+      <c r="J10">
+        <v>53</v>
+      </c>
+      <c r="K10">
+        <v>70</v>
+      </c>
+      <c r="L10">
+        <v>82</v>
+      </c>
+      <c r="M10">
+        <v>59</v>
+      </c>
+      <c r="N10">
+        <v>70</v>
+      </c>
+      <c r="O10">
+        <v>61</v>
+      </c>
+      <c r="P10">
+        <v>74</v>
+      </c>
+      <c r="Q10">
+        <v>71</v>
+      </c>
+      <c r="R10">
+        <v>80</v>
+      </c>
+      <c r="S10">
+        <v>86</v>
+      </c>
+      <c r="T10">
+        <v>80</v>
+      </c>
+      <c r="U10">
+        <v>54</v>
+      </c>
+      <c r="V10">
+        <v>60</v>
+      </c>
+      <c r="W10">
+        <v>44</v>
+      </c>
+      <c r="X10">
+        <v>66</v>
+      </c>
+      <c r="Y10">
+        <v>53</v>
+      </c>
+      <c r="Z10">
+        <v>100</v>
+      </c>
+      <c r="AA10">
+        <v>69</v>
+      </c>
+      <c r="AB10">
+        <v>65</v>
+      </c>
+      <c r="AC10">
+        <v>64</v>
+      </c>
+      <c r="AD10">
+        <v>57</v>
+      </c>
+      <c r="AE10">
+        <v>57</v>
+      </c>
+      <c r="AF10">
+        <v>51</v>
+      </c>
+      <c r="AG10">
+        <v>70</v>
+      </c>
+      <c r="AH10">
+        <v>50</v>
+      </c>
+      <c r="AI10">
+        <v>83</v>
+      </c>
+      <c r="AJ10">
+        <v>76</v>
+      </c>
+      <c r="AK10">
+        <v>75</v>
+      </c>
+      <c r="AL10">
+        <v>83</v>
+      </c>
+      <c r="AM10">
+        <v>59</v>
+      </c>
+      <c r="AN10">
+        <v>64</v>
+      </c>
+      <c r="AO10">
+        <v>59</v>
+      </c>
+      <c r="AP10">
+        <v>89</v>
+      </c>
+      <c r="AQ10">
+        <v>89</v>
+      </c>
+      <c r="AR10">
+        <v>83</v>
+      </c>
+      <c r="AS10">
+        <v>72</v>
+      </c>
+      <c r="AT10">
+        <v>59</v>
+      </c>
+      <c r="AU10">
+        <v>50</v>
+      </c>
+      <c r="AV10">
+        <v>67</v>
+      </c>
+      <c r="AW10">
+        <v>51</v>
+      </c>
+      <c r="AX10">
+        <v>91</v>
+      </c>
+      <c r="AY10">
+        <v>56</v>
+      </c>
+      <c r="AZ10">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11">
+        <v>97</v>
+      </c>
+      <c r="C11">
+        <v>75</v>
+      </c>
+      <c r="D11">
+        <v>57</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11">
+        <v>57</v>
+      </c>
+      <c r="G11">
+        <v>53</v>
+      </c>
+      <c r="H11">
+        <v>56</v>
+      </c>
+      <c r="I11">
+        <v>63</v>
+      </c>
+      <c r="J11">
+        <v>51</v>
+      </c>
+      <c r="K11">
+        <v>66</v>
+      </c>
+      <c r="L11">
+        <v>83</v>
+      </c>
+      <c r="M11">
+        <v>71</v>
+      </c>
+      <c r="N11">
+        <v>68</v>
+      </c>
+      <c r="O11">
+        <v>61</v>
+      </c>
+      <c r="P11">
+        <v>76</v>
+      </c>
+      <c r="Q11">
+        <v>67</v>
+      </c>
+      <c r="R11">
+        <v>75</v>
+      </c>
+      <c r="S11">
+        <v>88</v>
+      </c>
+      <c r="T11">
+        <v>82</v>
+      </c>
+      <c r="U11">
+        <v>60</v>
+      </c>
+      <c r="V11">
+        <v>58</v>
+      </c>
+      <c r="W11">
+        <v>45</v>
+      </c>
+      <c r="X11">
+        <v>70</v>
+      </c>
+      <c r="Y11">
+        <v>56</v>
+      </c>
+      <c r="Z11">
+        <v>95</v>
+      </c>
+      <c r="AA11">
+        <v>74</v>
+      </c>
+      <c r="AB11">
+        <v>75</v>
+      </c>
+      <c r="AC11">
+        <v>75</v>
+      </c>
+      <c r="AD11">
+        <v>58</v>
+      </c>
+      <c r="AE11">
+        <v>59</v>
+      </c>
+      <c r="AF11">
+        <v>55</v>
+      </c>
+      <c r="AG11">
+        <v>75</v>
+      </c>
+      <c r="AH11">
+        <v>54</v>
+      </c>
+      <c r="AI11">
+        <v>89</v>
+      </c>
+      <c r="AJ11">
+        <v>75</v>
+      </c>
+      <c r="AK11">
+        <v>73</v>
+      </c>
+      <c r="AL11">
+        <v>88</v>
+      </c>
+      <c r="AM11">
+        <v>62</v>
+      </c>
+      <c r="AN11">
+        <v>67</v>
+      </c>
+      <c r="AO11">
+        <v>60</v>
+      </c>
+      <c r="AP11">
+        <v>83</v>
+      </c>
+      <c r="AQ11">
+        <v>76</v>
+      </c>
+      <c r="AR11">
+        <v>85</v>
+      </c>
+      <c r="AS11">
+        <v>74</v>
+      </c>
+      <c r="AT11">
+        <v>67</v>
+      </c>
+      <c r="AU11">
+        <v>61</v>
+      </c>
+      <c r="AV11">
+        <v>75</v>
+      </c>
+      <c r="AW11">
+        <v>57</v>
+      </c>
+      <c r="AX11">
+        <v>87</v>
+      </c>
+      <c r="AY11">
+        <v>57</v>
+      </c>
+      <c r="AZ11">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12">
+        <v>93</v>
+      </c>
+      <c r="C12">
+        <v>84</v>
+      </c>
+      <c r="D12">
+        <v>57</v>
+      </c>
+      <c r="E12">
+        <v>96</v>
+      </c>
+      <c r="F12">
+        <v>58</v>
+      </c>
+      <c r="G12">
+        <v>56</v>
+      </c>
+      <c r="H12">
+        <v>56</v>
+      </c>
+      <c r="I12">
+        <v>61</v>
+      </c>
+      <c r="J12">
+        <v>54</v>
+      </c>
+      <c r="K12">
+        <v>72</v>
+      </c>
+      <c r="L12">
+        <v>76</v>
+      </c>
+      <c r="M12">
+        <v>67</v>
+      </c>
+      <c r="N12">
+        <v>74</v>
+      </c>
+      <c r="O12">
+        <v>61</v>
+      </c>
+      <c r="P12">
+        <v>78</v>
+      </c>
+      <c r="Q12">
+        <v>69</v>
+      </c>
+      <c r="R12">
+        <v>80</v>
+      </c>
+      <c r="S12">
+        <v>81</v>
+      </c>
+      <c r="T12">
+        <v>82</v>
+      </c>
+      <c r="U12">
+        <v>55</v>
+      </c>
+      <c r="V12">
+        <v>63</v>
+      </c>
+      <c r="W12">
+        <v>47</v>
+      </c>
+      <c r="X12">
+        <v>72</v>
+      </c>
+      <c r="Y12">
+        <v>60</v>
+      </c>
+      <c r="Z12">
+        <v>100</v>
+      </c>
+      <c r="AA12">
+        <v>70</v>
+      </c>
+      <c r="AB12">
+        <v>60</v>
+      </c>
+      <c r="AC12">
+        <v>72</v>
+      </c>
+      <c r="AD12">
+        <v>58</v>
+      </c>
+      <c r="AE12">
+        <v>55</v>
+      </c>
+      <c r="AF12">
+        <v>55</v>
+      </c>
+      <c r="AG12">
+        <v>78</v>
+      </c>
+      <c r="AH12">
+        <v>54</v>
+      </c>
+      <c r="AI12">
+        <v>82</v>
+      </c>
+      <c r="AJ12">
+        <v>84</v>
+      </c>
+      <c r="AK12">
+        <v>70</v>
+      </c>
+      <c r="AL12">
+        <v>81</v>
+      </c>
+      <c r="AM12">
+        <v>59</v>
+      </c>
+      <c r="AN12">
+        <v>67</v>
+      </c>
+      <c r="AO12">
+        <v>64</v>
+      </c>
+      <c r="AP12">
+        <v>89</v>
+      </c>
+      <c r="AQ12">
+        <v>82</v>
+      </c>
+      <c r="AR12">
+        <v>80</v>
+      </c>
+      <c r="AS12">
+        <v>72</v>
+      </c>
+      <c r="AT12">
+        <v>59</v>
+      </c>
+      <c r="AU12">
+        <v>53</v>
+      </c>
+      <c r="AV12">
+        <v>85</v>
+      </c>
+      <c r="AW12">
+        <v>56</v>
+      </c>
+      <c r="AX12">
+        <v>91</v>
+      </c>
+      <c r="AY12">
+        <v>60</v>
+      </c>
+      <c r="AZ12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13">
+        <v>91</v>
+      </c>
+      <c r="C13">
+        <v>85</v>
+      </c>
+      <c r="D13">
+        <v>59</v>
+      </c>
+      <c r="E13">
+        <v>99</v>
+      </c>
+      <c r="F13">
+        <v>62</v>
+      </c>
+      <c r="G13">
+        <v>59</v>
+      </c>
+      <c r="H13">
+        <v>61</v>
+      </c>
+      <c r="I13">
+        <v>71</v>
+      </c>
+      <c r="J13">
+        <v>60</v>
+      </c>
+      <c r="K13">
+        <v>75</v>
+      </c>
+      <c r="L13">
+        <v>81</v>
+      </c>
+      <c r="M13">
+        <v>72</v>
+      </c>
+      <c r="N13">
+        <v>76</v>
+      </c>
+      <c r="O13">
+        <v>70</v>
+      </c>
+      <c r="P13">
+        <v>81</v>
+      </c>
+      <c r="Q13">
+        <v>78</v>
+      </c>
+      <c r="R13">
+        <v>81</v>
+      </c>
+      <c r="S13">
+        <v>81</v>
+      </c>
+      <c r="T13">
+        <v>82</v>
+      </c>
+      <c r="U13">
+        <v>72</v>
+      </c>
+      <c r="V13">
+        <v>64</v>
+      </c>
+      <c r="W13">
+        <v>54</v>
+      </c>
+      <c r="X13">
+        <v>71</v>
+      </c>
+      <c r="Y13">
+        <v>63</v>
+      </c>
+      <c r="Z13">
+        <v>92</v>
+      </c>
+      <c r="AA13">
+        <v>76</v>
+      </c>
+      <c r="AB13">
+        <v>72</v>
+      </c>
+      <c r="AC13">
+        <v>68</v>
+      </c>
+      <c r="AD13">
+        <v>62</v>
+      </c>
+      <c r="AE13">
+        <v>61</v>
+      </c>
+      <c r="AF13">
+        <v>59</v>
+      </c>
+      <c r="AG13">
+        <v>68</v>
+      </c>
+      <c r="AH13">
+        <v>61</v>
+      </c>
+      <c r="AI13">
+        <v>88</v>
+      </c>
+      <c r="AJ13">
+        <v>82</v>
+      </c>
+      <c r="AK13">
+        <v>74</v>
+      </c>
+      <c r="AL13">
+        <v>94</v>
+      </c>
+      <c r="AM13">
+        <v>67</v>
+      </c>
+      <c r="AN13">
+        <v>73</v>
+      </c>
+      <c r="AO13">
+        <v>74</v>
+      </c>
+      <c r="AP13">
+        <v>89</v>
+      </c>
+      <c r="AQ13">
+        <v>78</v>
+      </c>
+      <c r="AR13">
+        <v>86</v>
+      </c>
+      <c r="AS13">
+        <v>74</v>
+      </c>
+      <c r="AT13">
+        <v>68</v>
+      </c>
+      <c r="AU13">
+        <v>58</v>
+      </c>
+      <c r="AV13">
+        <v>79</v>
+      </c>
+      <c r="AW13">
+        <v>66</v>
+      </c>
+      <c r="AX13">
+        <v>100</v>
+      </c>
+      <c r="AY13">
+        <v>64</v>
+      </c>
+      <c r="AZ13">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
